--- a/example-files/UCE_cleanup.xlsx
+++ b/example-files/UCE_cleanup.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dendro1\Dropbox\Lab Notebooks\Sam Quinn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1D0B3D-EA00-4B57-A0F2-B1A2EAAD0DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1320" windowWidth="21465" windowHeight="19605" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIU_115401_SampleSheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Full Barcode" sheetId="3" r:id="rId7"/>
     <sheet name="Color key" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="407">
   <si>
     <t>RG_Sample_Code</t>
   </si>
   <si>
-    <t>Customer_Code</t>
-  </si>
-  <si>
     <t>Project_Code</t>
   </si>
   <si>
@@ -369,9 +367,6 @@
     <t>SIU_115401_P01_WC02</t>
   </si>
   <si>
-    <t>ApeteJY08-102_1-0014-AABE</t>
-  </si>
-  <si>
     <t>TGGTGGTA</t>
   </si>
   <si>
@@ -549,9 +544,6 @@
     <t>SIU_115401_P01_WD05</t>
   </si>
   <si>
-    <t>Ahahn7-2006 JB ET-0195-ABJF</t>
-  </si>
-  <si>
     <t>AAGGACAC</t>
   </si>
   <si>
@@ -681,9 +673,6 @@
     <t>SIU_115401_P01_WE04</t>
   </si>
   <si>
-    <t>ApeteJLB07-010 -0021-AACB</t>
-  </si>
-  <si>
     <t>ACGCTCGA</t>
   </si>
   <si>
@@ -705,9 +694,6 @@
     <t>SIU_115401_P01_WE06</t>
   </si>
   <si>
-    <t>RventJLB07-010 -0128-ABCI</t>
-  </si>
-  <si>
     <t>CATACCAA</t>
   </si>
   <si>
@@ -837,9 +823,6 @@
     <t>SIU_115401_P01_WF05</t>
   </si>
   <si>
-    <t>ApeteJY08-102_2-0015-AABF</t>
-  </si>
-  <si>
     <t>GAACAGGC</t>
   </si>
   <si>
@@ -1113,9 +1096,6 @@
     <t>SIU_115401_P01_WH04</t>
   </si>
   <si>
-    <t>ApeteJLB07-808_1-0019-AABJ</t>
-  </si>
-  <si>
     <t>AATGTTGC</t>
   </si>
   <si>
@@ -1137,9 +1117,6 @@
     <t>SIU_115401_P01_WH06</t>
   </si>
   <si>
-    <t>ApeteJLB07-808_2-0020-AACA</t>
-  </si>
-  <si>
     <t>GATAGACA</t>
   </si>
   <si>
@@ -1227,18 +1204,6 @@
     <t>-BCBCBCBC- is the unique barcode for each sequence. (in the phyluce tutorial its represented as a *)</t>
   </si>
   <si>
-    <t>A. petersi</t>
-  </si>
-  <si>
-    <t>A. smaragdina</t>
-  </si>
-  <si>
-    <t>A. cainarachi</t>
-  </si>
-  <si>
-    <t>Other Ameerega</t>
-  </si>
-  <si>
     <t>Tag ID</t>
   </si>
   <si>
@@ -1267,12 +1232,36 @@
   </si>
   <si>
     <t>3. outname</t>
+  </si>
+  <si>
+    <t>Customer-Code</t>
+  </si>
+  <si>
+    <t>ApeteJY08-102-1-0014-AABE</t>
+  </si>
+  <si>
+    <t>ApeteJY08-102-2-0015-AABF</t>
+  </si>
+  <si>
+    <t>ApeteJLB07-808-1-0019-AABJ</t>
+  </si>
+  <si>
+    <t>ApeteJLB07-808-2-0020-AACA</t>
+  </si>
+  <si>
+    <t>Ahahn7-2006-JB-ET-0195-ABJF</t>
+  </si>
+  <si>
+    <t>ApeteJLB07-010--0021-AACB</t>
+  </si>
+  <si>
+    <t>RventJLB07-010--0128-ABCI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1531,7 +1520,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1556,16 +1545,22 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6296025" cy="4053546"/>
+    <xdr:ext cx="6296025" cy="4914679"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3038475" y="1009650"/>
-          <a:ext cx="6296025" cy="4053546"/>
+          <a:ext cx="6296025" cy="4914679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1686,6 +1681,48 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>3. tag map -&gt;2. full tag map</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[names]</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -1716,6 +1753,15 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>outname </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>** note before copying names be sure that no 'underscores' or 'spaces' exist in filename (search and replace)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1772,7 +1818,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2141,7 +2193,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4831,11 +4889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4854,2230 +4912,2230 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="C4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="C6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="C7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="C8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="C9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>41</v>
-      </c>
       <c r="G9" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="C10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>45</v>
-      </c>
       <c r="G10" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="C11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="C12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>53</v>
-      </c>
       <c r="G12" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="C13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="F13" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>57</v>
-      </c>
       <c r="G13" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="C14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="30" t="s">
+      <c r="F14" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>61</v>
-      </c>
       <c r="G14" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="C15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="F15" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>65</v>
-      </c>
       <c r="G15" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="C16" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="30" t="s">
+      <c r="F16" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>69</v>
-      </c>
       <c r="G16" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="C17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="F17" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>73</v>
-      </c>
       <c r="G17" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="C18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="30" t="s">
+      <c r="F18" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>77</v>
-      </c>
       <c r="G18" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="C19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="30" t="s">
+      <c r="F19" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>81</v>
-      </c>
       <c r="G19" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="C20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="30" t="s">
+      <c r="F20" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>85</v>
-      </c>
       <c r="G20" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="30" t="s">
+      <c r="F21" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>89</v>
-      </c>
       <c r="G21" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="C22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="30" t="s">
+      <c r="F22" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>93</v>
-      </c>
       <c r="G22" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="C23" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="G23" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="C24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="30" t="s">
+      <c r="F24" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>101</v>
-      </c>
       <c r="G24" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="C25" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="30" t="s">
+      <c r="F25" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>105</v>
-      </c>
       <c r="G25" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="C26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="30" t="s">
+      <c r="F26" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>109</v>
-      </c>
       <c r="G26" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="F27" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>113</v>
-      </c>
       <c r="G27" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="F28" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>117</v>
-      </c>
       <c r="G28" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="F29" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>121</v>
-      </c>
       <c r="G29" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="F30" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>125</v>
-      </c>
       <c r="G30" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="F31" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>129</v>
-      </c>
       <c r="G31" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="F32" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>133</v>
-      </c>
       <c r="G32" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="F33" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>137</v>
-      </c>
       <c r="G33" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="F34" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>141</v>
-      </c>
       <c r="G34" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="F35" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>145</v>
-      </c>
       <c r="G35" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="F36" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="G36" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="F37" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="G37" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="F38" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>157</v>
-      </c>
       <c r="G38" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="F39" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>161</v>
-      </c>
       <c r="G39" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="F40" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>165</v>
-      </c>
       <c r="G40" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="F41" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>169</v>
-      </c>
       <c r="G41" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>173</v>
-      </c>
       <c r="G42" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>177</v>
-      </c>
       <c r="G43" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B44" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>181</v>
-      </c>
       <c r="G44" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>185</v>
-      </c>
       <c r="G45" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>189</v>
-      </c>
       <c r="G46" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>193</v>
-      </c>
       <c r="G47" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>197</v>
-      </c>
       <c r="G48" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B49" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F49" s="30" t="s">
-        <v>201</v>
-      </c>
       <c r="G49" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>205</v>
-      </c>
       <c r="G50" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>209</v>
-      </c>
       <c r="G51" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F52" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>213</v>
-      </c>
       <c r="G52" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>215</v>
+        <v>405</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E53" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E54" s="30" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>223</v>
+        <v>406</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E55" s="30" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C56" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E56" s="30" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C57" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E57" s="30" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C58" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E58" s="30" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G58" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C59" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E59" s="30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C60" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E60" s="30" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C61" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E61" s="30" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G61" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C62" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E62" s="30" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C63" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E63" s="30" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C64" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E64" s="30" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C65" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E65" s="30" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>267</v>
+        <v>401</v>
       </c>
       <c r="C66" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E66" s="30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C67" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E67" s="30" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C68" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E68" s="30" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C69" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E69" s="30" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C70" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E70" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C71" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E71" s="30" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C72" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E72" s="30" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C73" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E73" s="30" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C74" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E74" s="30" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E75" s="30" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C76" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E76" s="30" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C77" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E77" s="30" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C78" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E78" s="30" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C79" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E79" s="30" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C80" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E80" s="30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C81" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E81" s="30" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C82" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E82" s="30" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G82" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C83" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E83" s="30" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G83" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C84" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E84" s="30" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C85" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E85" s="30" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C86" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E86" s="30" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C87" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E87" s="30" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G87" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C88" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E88" s="30" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="C89" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E89" s="30" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G89" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C90" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E90" s="30" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F90" s="30" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G90" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="C91" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E91" s="30" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F91" s="30" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G91" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C92" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E92" s="30" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F92" s="30" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G92" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C93" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E93" s="30" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F93" s="30" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C94" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E94" s="30" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C95" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E95" s="30" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C96" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E96" s="30" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F96" s="30" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C97" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E97" s="30" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7091,7 +7149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7106,11 +7164,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7121,14 +7179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7145,16 +7203,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7167,7 +7225,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>RIGHT(A2,8)</f>
@@ -7188,7 +7246,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D3" s="15" t="str">
         <f t="shared" ref="D3:D33" si="1">RIGHT(A3,8)</f>
@@ -7209,7 +7267,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7230,7 +7288,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7251,7 +7309,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7272,7 +7330,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D7" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7293,7 +7351,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D8" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7314,7 +7372,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7335,7 +7393,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7356,7 +7414,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D11" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7378,7 +7436,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7399,7 +7457,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D13" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7420,7 +7478,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D14" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7441,7 +7499,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7462,7 +7520,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D16" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7483,7 +7541,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D17" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7504,7 +7562,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D18" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7525,7 +7583,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D19" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7546,7 +7604,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D20" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7567,7 +7625,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D21" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7588,7 +7646,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D22" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7609,7 +7667,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D23" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7630,7 +7688,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D24" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7651,7 +7709,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D25" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7672,7 +7730,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D26" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7693,7 +7751,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D27" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7714,7 +7772,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D28" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7735,7 +7793,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D29" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7756,7 +7814,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D30" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7777,7 +7835,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D31" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7798,7 +7856,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D32" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7819,7 +7877,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D33" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7840,7 +7898,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D34" s="15" t="str">
         <f t="shared" ref="D34:D65" si="2">RIGHT(A34,8)</f>
@@ -7861,7 +7919,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D35" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7882,7 +7940,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D36" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7903,7 +7961,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D37" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7924,7 +7982,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D38" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7945,7 +8003,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D39" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7966,7 +8024,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D40" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7987,7 +8045,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D41" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8008,7 +8066,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D42" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8029,7 +8087,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D43" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8050,7 +8108,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D44" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8071,7 +8129,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D45" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8092,7 +8150,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D46" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8113,7 +8171,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D47" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8134,7 +8192,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D48" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8155,7 +8213,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D49" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8176,7 +8234,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D50" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8197,7 +8255,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D51" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8218,7 +8276,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D52" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8239,7 +8297,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D53" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8260,7 +8318,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D54" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8281,7 +8339,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D55" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8302,7 +8360,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D56" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8323,7 +8381,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D57" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8344,7 +8402,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D58" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8365,7 +8423,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D59" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8386,7 +8444,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D60" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8407,7 +8465,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D61" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8428,7 +8486,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D62" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8449,7 +8507,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D63" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8470,7 +8528,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D64" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8491,7 +8549,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D65" s="15" t="str">
         <f t="shared" si="2"/>
@@ -8512,7 +8570,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D66" s="15" t="str">
         <f t="shared" ref="D66:D97" si="4">RIGHT(A66,8)</f>
@@ -8533,7 +8591,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D67" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8554,7 +8612,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D68" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8575,7 +8633,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D69" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8596,7 +8654,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D70" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8617,7 +8675,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D71" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8638,7 +8696,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D72" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8659,7 +8717,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D73" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8680,7 +8738,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D74" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8701,7 +8759,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D75" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8722,7 +8780,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D76" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8743,7 +8801,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D77" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8764,7 +8822,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D78" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8785,7 +8843,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D79" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8806,7 +8864,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D80" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8827,7 +8885,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D81" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8848,7 +8906,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D82" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8869,7 +8927,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D83" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8890,7 +8948,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D84" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8911,7 +8969,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D85" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8932,7 +8990,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D86" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8953,7 +9011,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D87" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8974,7 +9032,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D88" s="15" t="str">
         <f t="shared" si="4"/>
@@ -8995,7 +9053,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D89" s="15" t="str">
         <f t="shared" si="4"/>
@@ -9016,7 +9074,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D90" s="15" t="str">
         <f t="shared" si="4"/>
@@ -9037,7 +9095,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D91" s="15" t="str">
         <f t="shared" si="4"/>
@@ -9058,7 +9116,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D92" s="15" t="str">
         <f t="shared" si="4"/>
@@ -9079,7 +9137,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D93" s="15" t="str">
         <f t="shared" si="4"/>
@@ -9100,7 +9158,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D94" s="15" t="str">
         <f t="shared" si="4"/>
@@ -9121,7 +9179,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D95" s="15" t="str">
         <f t="shared" si="4"/>
@@ -9142,7 +9200,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D96" s="15" t="str">
         <f t="shared" si="4"/>
@@ -9163,7 +9221,7 @@
         <v>TCTACTCT</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D97" s="15" t="str">
         <f t="shared" si="4"/>
@@ -9181,14 +9239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9205,16 +9263,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9227,7 +9285,7 @@
         <v>GTGTTCTA</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D2" s="15" t="str">
         <f t="shared" ref="D2:D33" si="0">RIGHT(A2,8)</f>
@@ -9248,7 +9306,7 @@
         <v>AGTCACTA</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9269,7 +9327,7 @@
         <v>ATTGGCTC</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9290,7 +9348,7 @@
         <v>CAGATCTG</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9311,7 +9369,7 @@
         <v>CCGTGAGA</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9332,7 +9390,7 @@
         <v>ACACGACC</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D7" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9353,7 +9411,7 @@
         <v>AGCACCTC</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D8" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9374,7 +9432,7 @@
         <v>AAGACGGA</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9395,7 +9453,7 @@
         <v>CCAGTTCA</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9416,7 +9474,7 @@
         <v>GGAGAACA</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D11" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9437,7 +9495,7 @@
         <v>AGATCGCA</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9458,7 +9516,7 @@
         <v>ACTATGCA</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D13" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9479,7 +9537,7 @@
         <v>CAAGACTA</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D14" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9500,7 +9558,7 @@
         <v>CCTCCTGA</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D15" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9521,7 +9579,7 @@
         <v>AAACATCG</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D16" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9542,7 +9600,7 @@
         <v>ACCTCCAA</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D17" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9563,7 +9621,7 @@
         <v>CGGATTGC</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D18" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9584,7 +9642,7 @@
         <v>ACATTGGC</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D19" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9605,7 +9663,7 @@
         <v>ATTGAGGA</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D20" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9626,7 +9684,7 @@
         <v>GTCGTAGA</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D21" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9647,7 +9705,7 @@
         <v>TCTTCACA</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D22" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9668,7 +9726,7 @@
         <v>GGTGCGAA</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D23" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9689,7 +9747,7 @@
         <v>ACCACTGT</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D24" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9710,7 +9768,7 @@
         <v>ACAGATTC</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D25" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9731,7 +9789,7 @@
         <v>TGGAACAA</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D26" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9752,7 +9810,7 @@
         <v>TGGTGGTA</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D27" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9773,7 +9831,7 @@
         <v>CGAACTTA</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D28" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9794,7 +9852,7 @@
         <v>ACAGCAGA</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D29" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9815,7 +9873,7 @@
         <v>ATCATTCC</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D30" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9836,7 +9894,7 @@
         <v>ATGCCTAA</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D31" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9857,7 +9915,7 @@
         <v>TCCGTCTA</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D32" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9878,7 +9936,7 @@
         <v>AAGGTACA</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D33" s="15" t="str">
         <f t="shared" si="0"/>
@@ -9899,7 +9957,7 @@
         <v>GACAGTGC</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D34" s="15" t="str">
         <f t="shared" ref="D34:D65" si="2">RIGHT(A34,8)</f>
@@ -9920,7 +9978,7 @@
         <v>GACTAGTA</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D35" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9941,7 +9999,7 @@
         <v>AAGAGATC</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D36" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9962,7 +10020,7 @@
         <v>CTCAATGA</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D37" s="15" t="str">
         <f t="shared" si="2"/>
@@ -9983,7 +10041,7 @@
         <v>GCTAACGA</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D38" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10004,7 +10062,7 @@
         <v>AATCCGTC</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D39" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10025,7 +10083,7 @@
         <v>CAACCACA</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D40" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10046,7 +10104,7 @@
         <v>CTAAGGTC</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D41" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10067,7 +10125,7 @@
         <v>AAGGACAC</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D42" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10088,7 +10146,7 @@
         <v>GCCACATA</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D43" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10109,7 +10167,7 @@
         <v>CCGACAAC</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D44" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10130,7 +10188,7 @@
         <v>ATAGCGAC</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D45" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10151,7 +10209,7 @@
         <v>TGAAGAGA</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D46" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10172,7 +10230,7 @@
         <v>CATCAAGT</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D47" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10193,7 +10251,7 @@
         <v>GTCTGTCA</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D48" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10214,7 +10272,7 @@
         <v>CGCTGATC</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D49" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10235,7 +10293,7 @@
         <v>GAGCTGAA</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D50" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10256,7 +10314,7 @@
         <v>CGACACAC</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D51" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10277,7 +10335,7 @@
         <v>CCTAATCC</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D52" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10298,7 +10356,7 @@
         <v>ACGCTCGA</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D53" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10319,7 +10377,7 @@
         <v>GAGTTAGC</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D54" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10340,7 +10398,7 @@
         <v>CATACCAA</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D55" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10361,7 +10419,7 @@
         <v>CTGAGCCA</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D56" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10382,7 +10440,7 @@
         <v>AGTGGTCA</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D57" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10403,7 +10461,7 @@
         <v>AGAGTCAA</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D58" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10424,7 +10482,7 @@
         <v>TATCAGCA</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D59" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10445,7 +10503,7 @@
         <v>AACAACCA</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D60" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10466,7 +10524,7 @@
         <v>AGATGTAC</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D61" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10487,7 +10545,7 @@
         <v>ATCCTGTA</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D62" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10508,7 +10566,7 @@
         <v>AGCCATGC</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D63" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10529,7 +10587,7 @@
         <v>AGGCTAAC</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D64" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10550,7 +10608,7 @@
         <v>CTGGCATA</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D65" s="15" t="str">
         <f t="shared" si="2"/>
@@ -10571,7 +10629,7 @@
         <v>GAACAGGC</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D66" s="15" t="str">
         <f t="shared" ref="D66:D97" si="4">RIGHT(A66,8)</f>
@@ -10592,7 +10650,7 @@
         <v>TAGGATGA</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D67" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10613,7 +10671,7 @@
         <v>CACTTCGA</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D68" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10634,7 +10692,7 @@
         <v>GCTCGGTA</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D69" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10655,7 +10713,7 @@
         <v>GAATCTGA</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D70" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10676,7 +10734,7 @@
         <v>AGCAGGAA</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D71" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10697,7 +10755,7 @@
         <v>GCGAGTAA</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D72" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10718,7 +10776,7 @@
         <v>TGGCTTCA</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D73" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10739,7 +10797,7 @@
         <v>CACCTTAC</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D74" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10760,7 +10818,7 @@
         <v>AGTACAAG</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D75" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10781,7 +10839,7 @@
         <v>ACGTATCA</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D76" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10802,7 +10860,7 @@
         <v>ACAAGCTA</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D77" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10823,7 +10881,7 @@
         <v>AACTCACC</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D78" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10844,7 +10902,7 @@
         <v>AACCGAGA</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D79" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10865,7 +10923,7 @@
         <v>ACACAGAA</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D80" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10886,7 +10944,7 @@
         <v>TTCACGCA</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D81" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10907,7 +10965,7 @@
         <v>CGACTGGA</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D82" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10928,7 +10986,7 @@
         <v>CCGAAGTA</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D83" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10949,7 +11007,7 @@
         <v>GCCAAGAC</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D84" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10970,7 +11028,7 @@
         <v>CGCATACA</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D85" s="15" t="str">
         <f t="shared" si="4"/>
@@ -10991,7 +11049,7 @@
         <v>CTGTAGCC</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D86" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11012,7 +11070,7 @@
         <v>CAATGGAA</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D87" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11033,7 +11091,7 @@
         <v>CCTCTATC</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D88" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11054,7 +11112,7 @@
         <v>AATGTTGC</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D89" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11075,7 +11133,7 @@
         <v>AACGCTTA</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D90" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11096,7 +11154,7 @@
         <v>GATAGACA</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D91" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11117,7 +11175,7 @@
         <v>AACGTGAT</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D92" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11138,7 +11196,7 @@
         <v>CCATCCTC</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D93" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11159,7 +11217,7 @@
         <v>CAAGGAGC</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D94" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11180,7 +11238,7 @@
         <v>CAGCGTTA</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D95" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11201,7 +11259,7 @@
         <v>GATGAATC</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D96" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11222,7 +11280,7 @@
         <v>GTACGCAA</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D97" s="15" t="str">
         <f t="shared" si="4"/>
@@ -11239,14 +11297,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11259,16 +11317,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11736,7 +11794,7 @@
       </c>
       <c r="D27" s="21" t="str">
         <f>B27&amp;":"&amp;SIU_115401_SampleSheet!B27</f>
-        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WC02_i5-512_i7-67_S1105:ApeteJY08-102_1-0014-AABE</v>
+        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WC02_i5-512_i7-67_S1105:ApeteJY08-102-1-0014-AABE</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -12006,7 +12064,7 @@
       </c>
       <c r="D42" s="21" t="str">
         <f>B42&amp;":"&amp;SIU_115401_SampleSheet!B42</f>
-        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WD05_i5-512_i7-71_S1120:Ahahn7-2006 JB ET-0195-ABJF</v>
+        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WD05_i5-512_i7-71_S1120:Ahahn7-2006-JB-ET-0195-ABJF</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -12204,7 +12262,7 @@
       </c>
       <c r="D53" s="21" t="str">
         <f>B53&amp;":"&amp;SIU_115401_SampleSheet!B53</f>
-        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WE04_i5-512_i7-21_S1131:ApeteJLB07-010 -0021-AACB</v>
+        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WE04_i5-512_i7-21_S1131:ApeteJLB07-010--0021-AACB</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -12240,7 +12298,7 @@
       </c>
       <c r="D55" s="21" t="str">
         <f>B55&amp;":"&amp;SIU_115401_SampleSheet!B55</f>
-        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WE06_i5-512_i7-35_S1133:RventJLB07-010 -0128-ABCI</v>
+        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WE06_i5-512_i7-35_S1133:RventJLB07-010--0128-ABCI</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -12438,7 +12496,7 @@
       </c>
       <c r="D66" s="21" t="str">
         <f>B66&amp;":"&amp;SIU_115401_SampleSheet!B66</f>
-        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WF05_i5-512_i7-92_S1144:ApeteJY08-102_2-0015-AABF</v>
+        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WF05_i5-512_i7-92_S1144:ApeteJY08-102-2-0015-AABF</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -12852,7 +12910,7 @@
       </c>
       <c r="D89" s="21" t="str">
         <f>B89&amp;":"&amp;SIU_115401_SampleSheet!B89</f>
-        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WH04_i5-512_i7-73_S1167:ApeteJLB07-808_1-0019-AABJ</v>
+        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WH04_i5-512_i7-73_S1167:ApeteJLB07-808-1-0019-AABJ</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -12888,7 +12946,7 @@
       </c>
       <c r="D91" s="21" t="str">
         <f>B91&amp;":"&amp;SIU_115401_SampleSheet!B91</f>
-        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WH06_i5-512_i7-49_S1169:ApeteJLB07-808_2-0020-AACA</v>
+        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WH06_i5-512_i7-49_S1169:ApeteJLB07-808-2-0020-AACA</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -13005,11 +13063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13019,7 +13077,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -13028,7 +13086,7 @@
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -13044,7 +13102,7 @@
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -13103,11 +13161,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCellId="2" sqref="D14 D21 A1"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13116,36 +13174,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>397</v>
-      </c>
+      <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>398</v>
-      </c>
+      <c r="A2" s="9"/>
       <c r="B2" s="8"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>399</v>
-      </c>
+      <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>400</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>

--- a/example-files/UCE_cleanup.xlsx
+++ b/example-files/UCE_cleanup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1D0B3D-EA00-4B57-A0F2-B1A2EAAD0DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82721DC9-6236-4083-B1C5-AE69B9C14F6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIU_115401_SampleSheet" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,17 @@
     <sheet name="Full Barcode" sheetId="3" r:id="rId7"/>
     <sheet name="Color key" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1545,7 +1554,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6296025" cy="4914679"/>
+    <xdr:ext cx="6296025" cy="7498078"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -1560,7 +1569,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3038475" y="1009650"/>
-          <a:ext cx="6296025" cy="4914679"/>
+          <a:ext cx="6296025" cy="7498078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1591,12 +1600,6 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hi Sam-</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
             <a:t>To use this copy paste</a:t>
           </a:r>
           <a:r>
@@ -1609,9 +1612,379 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IMPORTANT: copy into phases: 1) "RG_sample_code" and "Customer-Code" and then "i5_Barcode_Seq", "i7_Barcode_Seq", "Sequence_Name"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>Make sure the text is updated (see in tagi5, tagi7, tag map)--- e.g. look at plate # in RG_Sample_Code (P01_...)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IMPORTANT: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-tagi5 and tag6 shold look something like: 'i5_008_WH08:CCATCCTC' </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>-Adjust the formulta in the 'tag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> map' column 2 (Name for Tag Map).  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Reduce the last number untill you only see: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WA01'  (removing '_i5-512_i7....").  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>H</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ere you would change it to: "=LEFT(A2,44)"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>"Full tag map" should look like  (again matching details of your sample):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WA01:i5_P01_WA01,i7_P01_WA01</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>"Out name" should look like: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WA01:ApeteJLB07-750-0012-AABC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
@@ -9246,7 +9619,7 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E97"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11303,8 +11676,8 @@
   </sheetPr>
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11335,16 +11708,16 @@
         <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WA01_i5-512_i7-59_S1080_L006_R1_001.fastq</v>
       </c>
       <c r="B2" s="28" t="str">
-        <f>LEFT(A2,63)</f>
-        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WA01_i5-512_i7-59_S1080</v>
+        <f>LEFT(A2,44)</f>
+        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WA01</v>
       </c>
       <c r="C2" s="18" t="str">
         <f>B2&amp;":"&amp;tagi5!C2&amp;tagi5!D2&amp;","&amp;tagi7!C2&amp;tagi7!D2</f>
-        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WA01_i5-512_i7-59_S1080:i5_P01_WA01,i7_P01_WA01</v>
+        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WA01:i5_P01_WA01,i7_P01_WA01</v>
       </c>
       <c r="D2" s="21" t="str">
         <f>B2&amp;":"&amp;SIU_115401_SampleSheet!B2</f>
-        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WA01_i5-512_i7-59_S1080:ApeteJLB07-750-0012-AABC</v>
+        <v>RAPiD-Genomics_HJYMTBBXX_SIU_115401_P01_WA01:ApeteJLB07-750-0012-AABC</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
